--- a/downloaded_files/ARCS109_Tutorial-35209.xlsx
+++ b/downloaded_files/ARCS109_Tutorial-35209.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,15 +235,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Wael Abdel Razek El Said Mwafy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6691388889</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.4167320602</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4167320602</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6671581019</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6671581019</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6652211806</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
